--- a/data_quarter/zb/价格指数/固定资产投资价格指数_累计（上年同期=100）(2019-).xlsx
+++ b/data_quarter/zb/价格指数/固定资产投资价格指数_累计（上年同期=100）(2019-).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,115 +509,280 @@
           <t>非金属材料价格指数_累计值（上年同期=100）</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>人工费价格指数</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>仪表及其他价格指数</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>其他费用价格指数</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>化工材料价格指数</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>固定资产投资价格指数</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>建筑安装工程价格指数</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>木、竹材及其制品价格指数</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>机械费价格指数</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>材料费价格指数</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>水暖及厨卫洁具价格指数</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>电气电料价格指数</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>装饰材料及配件价格指数</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>设备、工器具购置价格指数</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>金属材料价格指数</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>非金属材料价格指数</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B2" t="n">
+        <v>104.3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="G2" t="n">
         <v>104.2</v>
       </c>
-      <c r="C2" t="n">
+      <c r="H2" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="L2" t="n">
         <v>101.1</v>
       </c>
-      <c r="D2" t="n">
-        <v>103.6</v>
-      </c>
-      <c r="E2" t="n">
-        <v>101.7</v>
-      </c>
-      <c r="F2" t="n">
-        <v>103</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="M2" t="n">
+        <v>102.9</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+      <c r="O2" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="P2" t="n">
+        <v>106.7</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>104.3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="T2" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="U2" t="n">
         <v>103.5</v>
       </c>
-      <c r="H2" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="J2" t="n">
-        <v>103.5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="L2" t="n">
-        <v>101</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="V2" t="n">
+        <v>104.2</v>
+      </c>
+      <c r="W2" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>102.9</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD2" t="n">
         <v>102.5</v>
       </c>
-      <c r="N2" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="P2" t="n">
-        <v>105.8</v>
+      <c r="AE2" t="n">
+        <v>106.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="C3" t="n">
-        <v>101.3</v>
+        <v>101.1</v>
       </c>
       <c r="D3" t="n">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="E3" t="n">
-        <v>102.4</v>
+        <v>101.7</v>
       </c>
       <c r="F3" t="n">
+        <v>103</v>
+      </c>
+      <c r="G3" t="n">
         <v>103.5</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="L3" t="n">
+        <v>101</v>
+      </c>
+      <c r="M3" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>105.8</v>
+      </c>
+      <c r="Q3" t="n">
         <v>104.2</v>
       </c>
-      <c r="H3" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>104.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>102.4</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="R3" t="n">
         <v>101.1</v>
       </c>
-      <c r="M3" t="n">
-        <v>102.9</v>
-      </c>
-      <c r="N3" t="n">
-        <v>100</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="S3" t="n">
+        <v>103.6</v>
+      </c>
+      <c r="T3" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="U3" t="n">
+        <v>103</v>
+      </c>
+      <c r="V3" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="X3" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AB3" t="n">
         <v>102.5</v>
       </c>
-      <c r="P3" t="n">
-        <v>106.7</v>
+      <c r="AC3" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>105.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -663,6 +828,51 @@
         <v>100.1</v>
       </c>
       <c r="P4" t="n">
+        <v>105</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>103.9</v>
+      </c>
+      <c r="R4" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="S4" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="U4" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="V4" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="W4" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="X4" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="AE4" t="n">
         <v>105</v>
       </c>
     </row>

--- a/data_quarter/zb/价格指数/固定资产投资价格指数_累计（上年同期=100）(2019-).xlsx
+++ b/data_quarter/zb/价格指数/固定资产投资价格指数_累计（上年同期=100）(2019-).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,274 +509,109 @@
           <t>非金属材料价格指数_累计值（上年同期=100）</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>人工费价格指数</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>仪表及其他价格指数</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>其他费用价格指数</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>化工材料价格指数</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>固定资产投资价格指数</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>建筑安装工程价格指数</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>木、竹材及其制品价格指数</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>机械费价格指数</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>材料费价格指数</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>水暖及厨卫洁具价格指数</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>电气电料价格指数</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>装饰材料及配件价格指数</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>设备、工器具购置价格指数</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>金属材料价格指数</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>非金属材料价格指数</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2019年B</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="C2" t="n">
-        <v>101.3</v>
+        <v>101.1</v>
       </c>
       <c r="D2" t="n">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="E2" t="n">
-        <v>102.4</v>
+        <v>101.7</v>
       </c>
       <c r="F2" t="n">
+        <v>103</v>
+      </c>
+      <c r="G2" t="n">
         <v>103.5</v>
       </c>
-      <c r="G2" t="n">
-        <v>104.2</v>
-      </c>
       <c r="H2" t="n">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="I2" t="n">
-        <v>102.1</v>
+        <v>101.9</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5</v>
+        <v>103.5</v>
       </c>
       <c r="K2" t="n">
-        <v>102.4</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>101.1</v>
+        <v>101</v>
       </c>
       <c r="M2" t="n">
-        <v>102.9</v>
+        <v>102.5</v>
       </c>
       <c r="N2" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="O2" t="n">
-        <v>102.5</v>
+        <v>101.2</v>
       </c>
       <c r="P2" t="n">
-        <v>106.7</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>104.3</v>
-      </c>
-      <c r="R2" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="S2" t="n">
-        <v>103.7</v>
-      </c>
-      <c r="T2" t="n">
-        <v>102.4</v>
-      </c>
-      <c r="U2" t="n">
-        <v>103.5</v>
-      </c>
-      <c r="V2" t="n">
-        <v>104.2</v>
-      </c>
-      <c r="W2" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="X2" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>104.5</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>102.4</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>102.9</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>106.7</v>
+        <v>105.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2019年C</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B3" t="n">
+        <v>104.3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="E3" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="G3" t="n">
         <v>104.2</v>
       </c>
-      <c r="C3" t="n">
+      <c r="H3" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="L3" t="n">
         <v>101.1</v>
       </c>
-      <c r="D3" t="n">
-        <v>103.6</v>
-      </c>
-      <c r="E3" t="n">
-        <v>101.7</v>
-      </c>
-      <c r="F3" t="n">
-        <v>103</v>
-      </c>
-      <c r="G3" t="n">
-        <v>103.5</v>
-      </c>
-      <c r="H3" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>103.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="L3" t="n">
-        <v>101</v>
-      </c>
       <c r="M3" t="n">
+        <v>102.9</v>
+      </c>
+      <c r="N3" t="n">
+        <v>100</v>
+      </c>
+      <c r="O3" t="n">
         <v>102.5</v>
       </c>
-      <c r="N3" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>101.2</v>
-      </c>
       <c r="P3" t="n">
-        <v>105.8</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>104.2</v>
-      </c>
-      <c r="R3" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="S3" t="n">
-        <v>103.6</v>
-      </c>
-      <c r="T3" t="n">
-        <v>101.7</v>
-      </c>
-      <c r="U3" t="n">
-        <v>103</v>
-      </c>
-      <c r="V3" t="n">
-        <v>103.5</v>
-      </c>
-      <c r="W3" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="X3" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>103.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>105.8</v>
+        <v>106.7</v>
       </c>
     </row>
     <row r="4">
@@ -828,51 +663,6 @@
         <v>100.1</v>
       </c>
       <c r="P4" t="n">
-        <v>105</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>103.9</v>
-      </c>
-      <c r="R4" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="S4" t="n">
-        <v>103.5</v>
-      </c>
-      <c r="T4" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="U4" t="n">
-        <v>102.6</v>
-      </c>
-      <c r="V4" t="n">
-        <v>102.8</v>
-      </c>
-      <c r="W4" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="X4" t="n">
-        <v>101.7</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>102.6</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>97.7</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="AE4" t="n">
         <v>105</v>
       </c>
     </row>
